--- a/Basededados/TURKEY_S1.xlsx
+++ b/Basededados/TURKEY_S1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB144"/>
+  <dimension ref="A1:AB153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gols_casa_FT</t>
+          <t>FT_Goals_H</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gols_Fora_FT</t>
+          <t>FT_Goals_A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>B365H</t>
+          <t>FT_Odds_H</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>B365D</t>
+          <t>FT_Odds_D</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>B365A</t>
+          <t>FT_Odds_A</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -14873,6 +14873,906 @@
       </c>
       <c r="AB144" t="n">
         <v>2.35</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>03/01/2023</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Umraniyespor</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>11</v>
+      </c>
+      <c r="M145" t="n">
+        <v>17</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="n">
+        <v>5</v>
+      </c>
+      <c r="P145" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>14</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5</v>
+      </c>
+      <c r="S145" t="n">
+        <v>2</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2</v>
+      </c>
+      <c r="V145" t="n">
+        <v>1</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>03/01/2023</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>8</v>
+      </c>
+      <c r="M146" t="n">
+        <v>18</v>
+      </c>
+      <c r="N146" t="n">
+        <v>2</v>
+      </c>
+      <c r="O146" t="n">
+        <v>4</v>
+      </c>
+      <c r="P146" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>17</v>
+      </c>
+      <c r="R146" t="n">
+        <v>3</v>
+      </c>
+      <c r="S146" t="n">
+        <v>8</v>
+      </c>
+      <c r="T146" t="n">
+        <v>4</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>04/01/2023</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>11</v>
+      </c>
+      <c r="M147" t="n">
+        <v>14</v>
+      </c>
+      <c r="N147" t="n">
+        <v>6</v>
+      </c>
+      <c r="O147" t="n">
+        <v>2</v>
+      </c>
+      <c r="P147" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>13</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1</v>
+      </c>
+      <c r="S147" t="n">
+        <v>7</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>04/01/2023</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+      <c r="G148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>19</v>
+      </c>
+      <c r="M148" t="n">
+        <v>11</v>
+      </c>
+      <c r="N148" t="n">
+        <v>5</v>
+      </c>
+      <c r="O148" t="n">
+        <v>7</v>
+      </c>
+      <c r="P148" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>16</v>
+      </c>
+      <c r="R148" t="n">
+        <v>6</v>
+      </c>
+      <c r="S148" t="n">
+        <v>2</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1</v>
+      </c>
+      <c r="U148" t="n">
+        <v>3</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>04/01/2023</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>12</v>
+      </c>
+      <c r="M149" t="n">
+        <v>9</v>
+      </c>
+      <c r="N149" t="n">
+        <v>5</v>
+      </c>
+      <c r="O149" t="n">
+        <v>2</v>
+      </c>
+      <c r="P149" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>15</v>
+      </c>
+      <c r="R149" t="n">
+        <v>6</v>
+      </c>
+      <c r="S149" t="n">
+        <v>4</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2</v>
+      </c>
+      <c r="U149" t="n">
+        <v>3</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>04/01/2023</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>10</v>
+      </c>
+      <c r="M150" t="n">
+        <v>10</v>
+      </c>
+      <c r="N150" t="n">
+        <v>5</v>
+      </c>
+      <c r="O150" t="n">
+        <v>3</v>
+      </c>
+      <c r="P150" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>13</v>
+      </c>
+      <c r="R150" t="n">
+        <v>4</v>
+      </c>
+      <c r="S150" t="n">
+        <v>3</v>
+      </c>
+      <c r="T150" t="n">
+        <v>4</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Buyuksehyr</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>14</v>
+      </c>
+      <c r="M151" t="n">
+        <v>16</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" t="n">
+        <v>6</v>
+      </c>
+      <c r="P151" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>6</v>
+      </c>
+      <c r="R151" t="n">
+        <v>5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>5</v>
+      </c>
+      <c r="T151" t="n">
+        <v>2</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Ad. Demirspor</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Istanbulspor</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>6</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>17</v>
+      </c>
+      <c r="M152" t="n">
+        <v>8</v>
+      </c>
+      <c r="N152" t="n">
+        <v>11</v>
+      </c>
+      <c r="O152" t="n">
+        <v>3</v>
+      </c>
+      <c r="P152" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>11</v>
+      </c>
+      <c r="R152" t="n">
+        <v>4</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1</v>
+      </c>
+      <c r="U152" t="n">
+        <v>3</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>05/01/2023</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>3</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>17</v>
+      </c>
+      <c r="M153" t="n">
+        <v>5</v>
+      </c>
+      <c r="N153" t="n">
+        <v>8</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1</v>
+      </c>
+      <c r="P153" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>9</v>
+      </c>
+      <c r="R153" t="n">
+        <v>10</v>
+      </c>
+      <c r="S153" t="n">
+        <v>1</v>
+      </c>
+      <c r="T153" t="n">
+        <v>2</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>

--- a/Basededados/TURKEY_S1.xlsx
+++ b/Basededados/TURKEY_S1.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Casa</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fora</t>
+          <t>Away</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
